--- a/Repositories.xlsx
+++ b/Repositories.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">git subtree add --prefix </t>
   </si>
   <si>
-    <t xml:space="preserve"> .git master</t>
+    <t>.git master</t>
   </si>
   <si>
     <t>Breadcrumb</t>
@@ -144,9 +144,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -173,21 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -203,6 +188,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -211,8 +203,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +239,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -256,14 +271,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -272,11 +279,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,22 +294,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,79 +318,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,103 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,17 +509,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -577,6 +566,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -603,9 +601,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,130 +632,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,8 +1090,8 @@
   <sheetPr/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C42" sqref="A41:C42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="O1" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,H1:L1)</f>
-        <v>git subtree add --prefix Authentication https://github.com/Utility-530/Utility.Authentication .git master</v>
+        <v>git subtree add --prefix Authentication https://github.com/Utility-530/Utility.Authentication.git master</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F32" si="1">D2&amp;".git"</f>
+        <f t="shared" ref="F2:F33" si="1">D2&amp;".git"</f>
         <v>Breadcrumb.git</v>
       </c>
       <c r="G2" t="str">
@@ -1186,22 +1186,22 @@
         <v>4</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I32" si="2">B2</f>
+        <f t="shared" ref="I2:I33" si="2">B2</f>
         <v>Breadcrumb</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K32" si="3">B2</f>
+        <f t="shared" ref="K2:K33" si="3">B2</f>
         <v>Breadcrumb</v>
       </c>
       <c r="L2" t="s">
         <v>5</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O32" si="4">_xlfn.TEXTJOIN("",TRUE,H2:L2)</f>
-        <v>git subtree add --prefix Breadcrumb https://github.com/Utility-530/Utility.Breadcrumb .git master</v>
+        <f t="shared" ref="O2:O33" si="4">_xlfn.TEXTJOIN("",TRUE,H2:L2)</f>
+        <v>git subtree add --prefix Breadcrumb https://github.com/Utility-530/Utility.Breadcrumb.git master</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="O3" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Collections https://github.com/Utility-530/Utility.Collections .git master</v>
+        <v>git subtree add --prefix Collections https://github.com/Utility-530/Utility.Collections.git master</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1273,7 +1273,7 @@
         <v>Common.git</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G32" si="5">_xlfn.TEXTJOIN("",TRUE,C4:F4)</f>
+        <f t="shared" ref="G4:G33" si="5">_xlfn.TEXTJOIN("",TRUE,C4:F4)</f>
         <v> git remote add Common https://github.com/Utility-530/Utility.Common.git</v>
       </c>
       <c r="H4" t="s">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="O4" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Common https://github.com/Utility-530/Utility.Common .git master</v>
+        <v>git subtree add --prefix Common https://github.com/Utility-530/Utility.Common.git master</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="O5" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Conversions https://github.com/Utility-530/Utility.Conversions .git master</v>
+        <v>git subtree add --prefix Conversions https://github.com/Utility-530/Utility.Conversions.git master</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix DAL https://github.com/Utility-530/Utility.DAL .git master</v>
+        <v>git subtree add --prefix DAL https://github.com/Utility-530/Utility.DAL.git master</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Database https://github.com/Utility-530/Utility.Database .git master</v>
+        <v>git subtree add --prefix Database https://github.com/Utility-530/Utility.Database.git master</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Enums https://github.com/Utility-530/Utility.Enums .git master</v>
+        <v>git subtree add --prefix Enums https://github.com/Utility-530/Utility.Enums.git master</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix FileSystem https://github.com/Utility-530/Utility.FileSystem .git master</v>
+        <v>git subtree add --prefix FileSystem https://github.com/Utility-530/Utility.FileSystem.git master</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="O10" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Flows https://github.com/Utility-530/Utility.Flows .git master</v>
+        <v>git subtree add --prefix Flows https://github.com/Utility-530/Utility.Flows.git master</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Graph https://github.com/Utility-530/Utility.Graph .git master</v>
+        <v>git subtree add --prefix Graph https://github.com/Utility-530/Utility.Graph.git master</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Helpers https://github.com/Utility-530/Utility.Helpers .git master</v>
+        <v>git subtree add --prefix Helpers https://github.com/Utility-530/Utility.Helpers.git master</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Helpers.Ex https://github.com/Utility-530/Utility.Helpers.Ex .git master</v>
+        <v>git subtree add --prefix Helpers.Ex https://github.com/Utility-530/Utility.Helpers.Ex.git master</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Infrastructure https://github.com/Utility-530/Utility.Infrastructure .git master</v>
+        <v>git subtree add --prefix Infrastructure https://github.com/Utility-530/Utility.Infrastructure.git master</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Interfaces https://github.com/Utility-530/Utility.Interfaces .git master</v>
+        <v>git subtree add --prefix Interfaces https://github.com/Utility-530/Utility.Interfaces.git master</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Log https://github.com/Utility-530/Utility.Log .git master</v>
+        <v>git subtree add --prefix Log https://github.com/Utility-530/Utility.Log.git master</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Maths https://github.com/Utility-530/Utility.Maths .git master</v>
+        <v>git subtree add --prefix Maths https://github.com/Utility-530/Utility.Maths.git master</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Models https://github.com/Utility-530/Utility.Models .git master</v>
+        <v>git subtree add --prefix Models https://github.com/Utility-530/Utility.Models.git master</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Nodes https://github.com/Utility-530/Utility.Nodes .git master</v>
+        <v>git subtree add --prefix Nodes https://github.com/Utility-530/Utility.Nodes.git master</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Nodify https://github.com/Utility-530/Utility.Nodify .git master</v>
+        <v>git subtree add --prefix Nodify https://github.com/Utility-530/Utility.Nodify.git master</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Observables https://github.com/Utility-530/Utility.Observables .git master</v>
+        <v>git subtree add --prefix Observables https://github.com/Utility-530/Utility.Observables.git master</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix Packages https://github.com/Utility-530/Utility.Packages .git master</v>
+        <v>git subtree add --prefix Packages https://github.com/Utility-530/Utility.Packages.git master</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="O23" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix PropertyGrid https://github.com/Utility-530/Utility.PropertyGrid .git master</v>
+        <v>git subtree add --prefix PropertyGrid https://github.com/Utility-530/Utility.PropertyGrid.git master</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" si="4"/>
-        <v>git subtree add --prefix PropertyTrees https://github.com/Utility-530/Utility.PropertyTrees .git master</v>
+        <v>git subtree add --prefix PropertyTrees https://github.com/Utility-530/Utility.PropertyTrees.git master</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2249,40 +2249,40 @@
         <v>2</v>
       </c>
       <c r="D25" t="str">
-        <f>B25</f>
+        <f t="shared" si="0"/>
         <v>Reactive</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F25" t="str">
-        <f>D25&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>Reactive.git</v>
       </c>
       <c r="G25" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C25:F25)</f>
+        <f t="shared" si="5"/>
         <v> git remote add Reactive https://github.com/Utility-530/Utility.Reactive.git</v>
       </c>
       <c r="H25" t="s">
         <v>4</v>
       </c>
       <c r="I25" t="str">
-        <f>B25</f>
+        <f t="shared" si="2"/>
         <v>Reactive</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K25" t="str">
-        <f>B25</f>
+        <f t="shared" si="3"/>
         <v>Reactive</v>
       </c>
       <c r="L25" t="s">
         <v>5</v>
       </c>
       <c r="O25" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H25:L25)</f>
-        <v>git subtree add --prefix Reactive https://github.com/Utility-530/Utility.Reactive .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Reactive https://github.com/Utility-530/Utility.Reactive.git master</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2296,40 +2296,40 @@
         <v>2</v>
       </c>
       <c r="D26" t="str">
-        <f>B26</f>
+        <f t="shared" si="0"/>
         <v>Repos</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F26" t="str">
-        <f>D26&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>Repos.git</v>
       </c>
       <c r="G26" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C26:F26)</f>
+        <f t="shared" si="5"/>
         <v> git remote add Repos https://github.com/Utility-530/Utility.Repos.git</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
       </c>
       <c r="I26" t="str">
-        <f>B26</f>
+        <f t="shared" si="2"/>
         <v>Repos</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K26" t="str">
-        <f>B26</f>
+        <f t="shared" si="3"/>
         <v>Repos</v>
       </c>
       <c r="L26" t="s">
         <v>5</v>
       </c>
       <c r="O26" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H26:L26)</f>
-        <v>git subtree add --prefix Repos https://github.com/Utility-530/Utility.Repos .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Repos https://github.com/Utility-530/Utility.Repos.git master</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2343,40 +2343,40 @@
         <v>2</v>
       </c>
       <c r="D27" t="str">
-        <f>B27</f>
+        <f t="shared" si="0"/>
         <v>Simulation</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="str">
-        <f>D27&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>Simulation.git</v>
       </c>
       <c r="G27" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C27:F27)</f>
+        <f t="shared" si="5"/>
         <v> git remote add Simulation https://github.com/Utility-530/Utility.Simulation.git</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
       </c>
       <c r="I27" t="str">
-        <f>B27</f>
+        <f t="shared" si="2"/>
         <v>Simulation</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K27" t="str">
-        <f>B27</f>
+        <f t="shared" si="3"/>
         <v>Simulation</v>
       </c>
       <c r="L27" t="s">
         <v>5</v>
       </c>
       <c r="O27" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H27:L27)</f>
-        <v>git subtree add --prefix Simulation https://github.com/Utility-530/Utility.Simulation .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Simulation https://github.com/Utility-530/Utility.Simulation.git master</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2390,40 +2390,40 @@
         <v>2</v>
       </c>
       <c r="D28" t="str">
-        <f>B28</f>
+        <f t="shared" si="0"/>
         <v>Strings</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F28" t="str">
-        <f>D28&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>Strings.git</v>
       </c>
       <c r="G28" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C28:F28)</f>
+        <f t="shared" si="5"/>
         <v> git remote add Strings https://github.com/Utility-530/Utility.Strings.git</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
       </c>
       <c r="I28" t="str">
-        <f>B28</f>
+        <f t="shared" si="2"/>
         <v>Strings</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K28" t="str">
-        <f>B28</f>
+        <f t="shared" si="3"/>
         <v>Strings</v>
       </c>
       <c r="L28" t="s">
         <v>5</v>
       </c>
       <c r="O28" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H28:L28)</f>
-        <v>git subtree add --prefix Strings https://github.com/Utility-530/Utility.Strings .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Strings https://github.com/Utility-530/Utility.Strings.git master</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2437,40 +2437,40 @@
         <v>2</v>
       </c>
       <c r="D29" t="str">
-        <f>B29</f>
+        <f t="shared" si="0"/>
         <v>Structs</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F29" t="str">
-        <f>D29&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>Structs.git</v>
       </c>
       <c r="G29" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C29:F29)</f>
+        <f t="shared" si="5"/>
         <v> git remote add Structs https://github.com/Utility-530/Utility.Structs.git</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
       </c>
       <c r="I29" t="str">
-        <f>B29</f>
+        <f t="shared" si="2"/>
         <v>Structs</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K29" t="str">
-        <f>B29</f>
+        <f t="shared" si="3"/>
         <v>Structs</v>
       </c>
       <c r="L29" t="s">
         <v>5</v>
       </c>
       <c r="O29" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H29:L29)</f>
-        <v>git subtree add --prefix Structs https://github.com/Utility-530/Utility.Structs .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Structs https://github.com/Utility-530/Utility.Structs.git master</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2484,40 +2484,40 @@
         <v>2</v>
       </c>
       <c r="D30" t="str">
-        <f>B30</f>
+        <f t="shared" si="0"/>
         <v>Tasks</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="str">
-        <f>D30&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>Tasks.git</v>
       </c>
       <c r="G30" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C30:F30)</f>
+        <f t="shared" si="5"/>
         <v> git remote add Tasks https://github.com/Utility-530/Utility.Tasks.git</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
       </c>
       <c r="I30" t="str">
-        <f>B30</f>
+        <f t="shared" si="2"/>
         <v>Tasks</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K30" t="str">
-        <f>B30</f>
+        <f t="shared" si="3"/>
         <v>Tasks</v>
       </c>
       <c r="L30" t="s">
         <v>5</v>
       </c>
       <c r="O30" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H30:L30)</f>
-        <v>git subtree add --prefix Tasks https://github.com/Utility-530/Utility.Tasks .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Tasks https://github.com/Utility-530/Utility.Tasks.git master</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2531,40 +2531,40 @@
         <v>2</v>
       </c>
       <c r="D31" t="str">
-        <f>B31</f>
+        <f t="shared" si="0"/>
         <v>Time</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F31" t="str">
-        <f>D31&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>Time.git</v>
       </c>
       <c r="G31" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C31:F31)</f>
+        <f t="shared" si="5"/>
         <v> git remote add Time https://github.com/Utility-530/Utility.Time.git</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
       </c>
       <c r="I31" t="str">
-        <f>B31</f>
+        <f t="shared" si="2"/>
         <v>Time</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="K31" t="str">
-        <f>B31</f>
+        <f t="shared" si="3"/>
         <v>Time</v>
       </c>
       <c r="L31" t="s">
         <v>5</v>
       </c>
       <c r="O31" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H31:L31)</f>
-        <v>git subtree add --prefix Time https://github.com/Utility-530/Utility.Time .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Time https://github.com/Utility-530/Utility.Time.git master</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2584,33 +2584,33 @@
         <v>37</v>
       </c>
       <c r="F32" t="str">
-        <f>D32&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>WPF.git</v>
       </c>
       <c r="G32" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C32:F32)</f>
+        <f t="shared" si="5"/>
         <v> git remote add WPF https://github.com/Utility-531/Utility.WPF.git</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
       </c>
       <c r="I32" t="str">
-        <f>B32</f>
+        <f t="shared" si="2"/>
         <v>WPF</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K32" t="str">
-        <f>B32</f>
+        <f t="shared" si="3"/>
         <v>WPF</v>
       </c>
       <c r="L32" t="s">
         <v>5</v>
       </c>
       <c r="O32" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H32:L32)</f>
-        <v>git subtree add --prefix WPF https://github.com/Utility-531/Utility.WPF .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix WPF https://github.com/Utility-531/Utility.WPF.git master</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2630,33 +2630,33 @@
         <v>39</v>
       </c>
       <c r="F33" t="str">
-        <f>D33&amp;".git"</f>
+        <f t="shared" si="1"/>
         <v>WPF.git</v>
       </c>
       <c r="G33" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,C33:F33)</f>
+        <f t="shared" si="5"/>
         <v> git remote add WPF https://github.com/Utility-532/Utility.WPF.git</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
       </c>
       <c r="I33" t="str">
-        <f>B33</f>
+        <f t="shared" si="2"/>
         <v>Commands</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K33" t="str">
-        <f>B33</f>
+        <f t="shared" si="3"/>
         <v>Commands</v>
       </c>
       <c r="L33" t="s">
         <v>5</v>
       </c>
       <c r="O33" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,H33:L33)</f>
-        <v>git subtree add --prefix Commands https://github.com/Utility-532/Utility.Commands .git master</v>
+        <f t="shared" si="4"/>
+        <v>git subtree add --prefix Commands https://github.com/Utility-532/Utility.Commands.git master</v>
       </c>
     </row>
     <row r="47" ht="92.25" spans="1:1">

--- a/Repositories.xlsx
+++ b/Repositories.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="39">
   <si>
     <t>Utility</t>
   </si>
@@ -25,115 +25,109 @@
     <t xml:space="preserve"> git remote add </t>
   </si>
   <si>
+    <t xml:space="preserve">git subtree add --prefix </t>
+  </si>
+  <si>
+    <t>.git master</t>
+  </si>
+  <si>
+    <t>Breadcrumb</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>FileSystem</t>
+  </si>
+  <si>
+    <t>Flows</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Helpers</t>
+  </si>
+  <si>
+    <t>Helpers.Ex</t>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Models</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Nodify</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>Packages</t>
+  </si>
+  <si>
+    <t>PropertyGrid</t>
+  </si>
+  <si>
+    <t>PropertyTrees</t>
+  </si>
+  <si>
+    <t>Reactive</t>
+  </si>
+  <si>
+    <t>Repos</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Strings</t>
+  </si>
+  <si>
+    <t>Structs</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
     <t xml:space="preserve"> https://github.com/Utility-530/Utility.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">git subtree add --prefix </t>
-  </si>
-  <si>
-    <t>.git master</t>
-  </si>
-  <si>
-    <t>Breadcrumb</t>
-  </si>
-  <si>
-    <t>Collections</t>
-  </si>
-  <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Conversions</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Enums</t>
-  </si>
-  <si>
-    <t>FileSystem</t>
-  </si>
-  <si>
-    <t>Flows</t>
-  </si>
-  <si>
-    <t>Graph</t>
-  </si>
-  <si>
-    <t>Helpers</t>
-  </si>
-  <si>
-    <t>Helpers.Ex</t>
-  </si>
-  <si>
-    <t>Infrastructure</t>
-  </si>
-  <si>
-    <t>Interfaces</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-  <si>
-    <t>Nodes</t>
-  </si>
-  <si>
-    <t>Nodify</t>
-  </si>
-  <si>
-    <t>Observables</t>
-  </si>
-  <si>
-    <t>Packages</t>
-  </si>
-  <si>
-    <t>PropertyGrid</t>
-  </si>
-  <si>
-    <t>PropertyTrees</t>
-  </si>
-  <si>
-    <t>Reactive</t>
-  </si>
-  <si>
-    <t>Repos</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Strings</t>
-  </si>
-  <si>
-    <t>Structs</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>WPF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://github.com/Utility-531/Utility.</t>
-  </si>
-  <si>
-    <t>Commands</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://github.com/Utility-532/Utility.</t>
   </si>
   <si>
     <t>find . -name .git -type d -prune</t>
@@ -144,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -173,16 +167,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,30 +213,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,22 +244,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,10 +259,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,6 +281,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -286,24 +296,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,91 +312,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,91 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,40 +506,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -569,8 +544,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,13 +589,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +608,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,130 +626,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1124,8 +1118,9 @@
         <f>B1</f>
         <v>Authentication</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" s="1" t="str">
+        <f>$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F1" t="str">
         <f>D1&amp;".git"</f>
@@ -1136,21 +1131,22 @@
         <v> git remote add Authentication https://github.com/Utility-530/Utility.Authentication.git</v>
       </c>
       <c r="H1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" t="str">
         <f>B1</f>
         <v>Authentication</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
+      <c r="J1" s="1" t="str">
+        <f>$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K1" t="str">
         <f>B1</f>
         <v>Authentication</v>
       </c>
       <c r="L1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O1" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,H1:L1)</f>
@@ -1162,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -1171,11 +1167,12 @@
         <f t="shared" ref="D2:D32" si="0">B2</f>
         <v>Breadcrumb</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
+      <c r="E2" s="1" t="str">
+        <f t="shared" ref="E2:E11" si="1">$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F33" si="1">D2&amp;".git"</f>
+        <f t="shared" ref="F2:F33" si="2">D2&amp;".git"</f>
         <v>Breadcrumb.git</v>
       </c>
       <c r="G2" t="str">
@@ -1183,24 +1180,25 @@
         <v> git remote add Breadcrumb https://github.com/Utility-530/Utility.Breadcrumb.git</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I33" si="2">B2</f>
+        <f t="shared" ref="I2:I33" si="3">B2</f>
         <v>Breadcrumb</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J11" si="4">$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K33" si="3">B2</f>
+        <f t="shared" ref="K2:K33" si="5">B2</f>
         <v>Breadcrumb</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ref="O2:O33" si="4">_xlfn.TEXTJOIN("",TRUE,H2:L2)</f>
+        <f t="shared" ref="O2:O33" si="6">_xlfn.TEXTJOIN("",TRUE,H2:L2)</f>
         <v>git subtree add --prefix Breadcrumb https://github.com/Utility-530/Utility.Breadcrumb.git master</v>
       </c>
     </row>
@@ -1209,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1218,11 +1216,12 @@
         <f t="shared" si="0"/>
         <v>Collections</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
+      <c r="E3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Collections.git</v>
       </c>
       <c r="G3" t="str">
@@ -1230,24 +1229,25 @@
         <v> git remote add Collections https://github.com/Utility-530/Utility.Collections.git</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Collections</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>3</v>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Collections</v>
       </c>
       <c r="L3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Collections https://github.com/Utility-530/Utility.Collections.git master</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1265,36 +1265,38 @@
         <f t="shared" si="0"/>
         <v>Common</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
+      <c r="E4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Common.git</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G33" si="5">_xlfn.TEXTJOIN("",TRUE,C4:F4)</f>
+        <f t="shared" ref="G4:G33" si="7">_xlfn.TEXTJOIN("",TRUE,C4:F4)</f>
         <v> git remote add Common https://github.com/Utility-530/Utility.Common.git</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Common</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>3</v>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Common</v>
       </c>
       <c r="L4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Common https://github.com/Utility-530/Utility.Common.git master</v>
       </c>
     </row>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -1312,36 +1314,38 @@
         <f t="shared" si="0"/>
         <v>Conversions</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
+      <c r="E5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Conversions.git</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Conversions https://github.com/Utility-530/Utility.Conversions.git</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Conversions</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>3</v>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Conversions</v>
       </c>
       <c r="L5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Conversions https://github.com/Utility-530/Utility.Conversions.git master</v>
       </c>
     </row>
@@ -1350,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -1359,36 +1363,38 @@
         <f t="shared" si="0"/>
         <v>DAL</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>3</v>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>DAL.git</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add DAL https://github.com/Utility-530/Utility.DAL.git</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>DAL</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>3</v>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>DAL</v>
       </c>
       <c r="L6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix DAL https://github.com/Utility-530/Utility.DAL.git master</v>
       </c>
     </row>
@@ -1397,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1406,36 +1412,38 @@
         <f t="shared" si="0"/>
         <v>Database</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Database.git</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Database https://github.com/Utility-530/Utility.Database.git</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Database</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>3</v>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Database</v>
       </c>
       <c r="L7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Database https://github.com/Utility-530/Utility.Database.git master</v>
       </c>
     </row>
@@ -1444,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1453,36 +1461,38 @@
         <f t="shared" si="0"/>
         <v>Enums</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>3</v>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Enums.git</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Enums https://github.com/Utility-530/Utility.Enums.git</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Enums</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>3</v>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Enums</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Enums https://github.com/Utility-530/Utility.Enums.git master</v>
       </c>
     </row>
@@ -1491,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
@@ -1500,36 +1510,38 @@
         <f t="shared" si="0"/>
         <v>FileSystem</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>3</v>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>FileSystem.git</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add FileSystem https://github.com/Utility-530/Utility.FileSystem.git</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FileSystem</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>3</v>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>FileSystem</v>
       </c>
       <c r="L9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix FileSystem https://github.com/Utility-530/Utility.FileSystem.git master</v>
       </c>
     </row>
@@ -1538,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
@@ -1547,36 +1559,38 @@
         <f t="shared" si="0"/>
         <v>Flows</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>3</v>
+      <c r="E10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Flows.git</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Flows https://github.com/Utility-530/Utility.Flows.git</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Flows</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>3</v>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Flows</v>
       </c>
       <c r="L10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Flows https://github.com/Utility-530/Utility.Flows.git master</v>
       </c>
     </row>
@@ -1585,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -1594,36 +1608,38 @@
         <f t="shared" si="0"/>
         <v>Graph</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>3</v>
+      <c r="E11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Graph.git</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Graph https://github.com/Utility-530/Utility.Graph.git</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Graph</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>3</v>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Graph</v>
       </c>
       <c r="L11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Graph https://github.com/Utility-530/Utility.Graph.git master</v>
       </c>
     </row>
@@ -1632,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1641,36 +1657,38 @@
         <f t="shared" si="0"/>
         <v>Helpers</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
+      <c r="E12" s="1" t="str">
+        <f t="shared" ref="E12:E21" si="8">$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Helpers.git</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Helpers https://github.com/Utility-530/Utility.Helpers.git</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Helpers</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>3</v>
+      <c r="J12" s="1" t="str">
+        <f t="shared" ref="J12:J21" si="9">$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Helpers</v>
       </c>
       <c r="L12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Helpers https://github.com/Utility-530/Utility.Helpers.git master</v>
       </c>
     </row>
@@ -1679,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
@@ -1688,36 +1706,38 @@
         <f t="shared" si="0"/>
         <v>Helpers.Ex</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>3</v>
+      <c r="E13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Helpers.Ex.git</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Helpers.Ex https://github.com/Utility-530/Utility.Helpers.Ex.git</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Helpers.Ex</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>3</v>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Helpers.Ex</v>
       </c>
       <c r="L13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Helpers.Ex https://github.com/Utility-530/Utility.Helpers.Ex.git master</v>
       </c>
     </row>
@@ -1726,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
@@ -1735,36 +1755,38 @@
         <f t="shared" si="0"/>
         <v>Infrastructure</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>3</v>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Infrastructure.git</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Infrastructure https://github.com/Utility-530/Utility.Infrastructure.git</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Infrastructure</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>3</v>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Infrastructure</v>
       </c>
       <c r="L14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Infrastructure https://github.com/Utility-530/Utility.Infrastructure.git master</v>
       </c>
     </row>
@@ -1773,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1782,36 +1804,38 @@
         <f t="shared" si="0"/>
         <v>Interfaces</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>3</v>
+      <c r="E15" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Interfaces.git</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Interfaces https://github.com/Utility-530/Utility.Interfaces.git</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Interfaces</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>3</v>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Interfaces</v>
       </c>
       <c r="L15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Interfaces https://github.com/Utility-530/Utility.Interfaces.git master</v>
       </c>
     </row>
@@ -1820,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
@@ -1829,36 +1853,38 @@
         <f t="shared" si="0"/>
         <v>Log</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>3</v>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Log.git</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Log https://github.com/Utility-530/Utility.Log.git</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Log</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>3</v>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Log</v>
       </c>
       <c r="L16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Log https://github.com/Utility-530/Utility.Log.git master</v>
       </c>
     </row>
@@ -1867,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1876,36 +1902,38 @@
         <f t="shared" si="0"/>
         <v>Maths</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>3</v>
+      <c r="E17" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Maths.git</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Maths https://github.com/Utility-530/Utility.Maths.git</v>
       </c>
       <c r="H17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Maths</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>3</v>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Maths</v>
       </c>
       <c r="L17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Maths https://github.com/Utility-530/Utility.Maths.git master</v>
       </c>
     </row>
@@ -1914,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1923,36 +1951,38 @@
         <f t="shared" si="0"/>
         <v>Models</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>3</v>
+      <c r="E18" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Models.git</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Models https://github.com/Utility-530/Utility.Models.git</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Models</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>3</v>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Models</v>
       </c>
       <c r="L18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Models https://github.com/Utility-530/Utility.Models.git master</v>
       </c>
     </row>
@@ -1961,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1970,36 +2000,38 @@
         <f t="shared" si="0"/>
         <v>Nodes</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>3</v>
+      <c r="E19" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nodes.git</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Nodes https://github.com/Utility-530/Utility.Nodes.git</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Nodes</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>3</v>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Nodes</v>
       </c>
       <c r="L19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Nodes https://github.com/Utility-530/Utility.Nodes.git master</v>
       </c>
     </row>
@@ -2008,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -2017,36 +2049,38 @@
         <f t="shared" si="0"/>
         <v>Nodify</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>3</v>
+      <c r="E20" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nodify.git</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Nodify https://github.com/Utility-530/Utility.Nodify.git</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Nodify</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>3</v>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Nodify</v>
       </c>
       <c r="L20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Nodify https://github.com/Utility-530/Utility.Nodify.git master</v>
       </c>
     </row>
@@ -2055,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -2064,36 +2098,38 @@
         <f t="shared" si="0"/>
         <v>Observables</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>3</v>
+      <c r="E21" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Observables.git</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Observables https://github.com/Utility-530/Utility.Observables.git</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Observables</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>3</v>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Observables</v>
       </c>
       <c r="L21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Observables https://github.com/Utility-530/Utility.Observables.git master</v>
       </c>
     </row>
@@ -2102,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -2111,36 +2147,38 @@
         <f t="shared" si="0"/>
         <v>Packages</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>3</v>
+      <c r="E22" s="1" t="str">
+        <f t="shared" ref="E22:E33" si="10">$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Packages.git</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Packages https://github.com/Utility-530/Utility.Packages.git</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Packages</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>3</v>
+      <c r="J22" s="1" t="str">
+        <f t="shared" ref="J22:J33" si="11">$B$41</f>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Packages</v>
       </c>
       <c r="L22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Packages https://github.com/Utility-530/Utility.Packages.git master</v>
       </c>
     </row>
@@ -2149,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -2158,36 +2196,38 @@
         <f t="shared" si="0"/>
         <v>PropertyGrid</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>3</v>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>PropertyGrid.git</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add PropertyGrid https://github.com/Utility-530/Utility.PropertyGrid.git</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PropertyGrid</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>3</v>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>PropertyGrid</v>
       </c>
       <c r="L23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix PropertyGrid https://github.com/Utility-530/Utility.PropertyGrid.git master</v>
       </c>
     </row>
@@ -2196,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -2205,36 +2245,38 @@
         <f t="shared" si="0"/>
         <v>PropertyTrees</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>3</v>
+      <c r="E24" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>PropertyTrees.git</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add PropertyTrees https://github.com/Utility-530/Utility.PropertyTrees.git</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PropertyTrees</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>3</v>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>PropertyTrees</v>
       </c>
       <c r="L24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix PropertyTrees https://github.com/Utility-530/Utility.PropertyTrees.git master</v>
       </c>
     </row>
@@ -2243,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2252,36 +2294,38 @@
         <f t="shared" si="0"/>
         <v>Reactive</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>3</v>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Reactive.git</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Reactive https://github.com/Utility-530/Utility.Reactive.git</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Reactive</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>3</v>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Reactive</v>
       </c>
       <c r="L25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Reactive https://github.com/Utility-530/Utility.Reactive.git master</v>
       </c>
     </row>
@@ -2290,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -2299,36 +2343,38 @@
         <f t="shared" si="0"/>
         <v>Repos</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>3</v>
+      <c r="E26" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Repos.git</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Repos https://github.com/Utility-530/Utility.Repos.git</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Repos</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>3</v>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Repos</v>
       </c>
       <c r="L26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Repos https://github.com/Utility-530/Utility.Repos.git master</v>
       </c>
     </row>
@@ -2337,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -2346,36 +2392,38 @@
         <f t="shared" si="0"/>
         <v>Simulation</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>3</v>
+      <c r="E27" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Simulation.git</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Simulation https://github.com/Utility-530/Utility.Simulation.git</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Simulation</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>3</v>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Simulation</v>
       </c>
       <c r="L27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Simulation https://github.com/Utility-530/Utility.Simulation.git master</v>
       </c>
     </row>
@@ -2384,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -2393,36 +2441,38 @@
         <f t="shared" si="0"/>
         <v>Strings</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>3</v>
+      <c r="E28" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Strings.git</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Strings https://github.com/Utility-530/Utility.Strings.git</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Strings</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>3</v>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Strings</v>
       </c>
       <c r="L28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Strings https://github.com/Utility-530/Utility.Strings.git master</v>
       </c>
     </row>
@@ -2431,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -2440,36 +2490,38 @@
         <f t="shared" si="0"/>
         <v>Structs</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>3</v>
+      <c r="E29" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Structs.git</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Structs https://github.com/Utility-530/Utility.Structs.git</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Structs</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>3</v>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Structs</v>
       </c>
       <c r="L29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Structs https://github.com/Utility-530/Utility.Structs.git master</v>
       </c>
     </row>
@@ -2478,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -2487,36 +2539,38 @@
         <f t="shared" si="0"/>
         <v>Tasks</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>3</v>
+      <c r="E30" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Tasks.git</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Tasks https://github.com/Utility-530/Utility.Tasks.git</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Tasks</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>3</v>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Tasks</v>
       </c>
       <c r="L30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Tasks https://github.com/Utility-530/Utility.Tasks.git master</v>
       </c>
     </row>
@@ -2525,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -2534,36 +2588,38 @@
         <f t="shared" si="0"/>
         <v>Time</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>3</v>
+      <c r="E31" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Time.git</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v> git remote add Time https://github.com/Utility-530/Utility.Time.git</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Time</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>3</v>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Time</v>
       </c>
       <c r="L31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>git subtree add --prefix Time https://github.com/Utility-530/Utility.Time.git master</v>
       </c>
     </row>
@@ -2572,45 +2628,47 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>WPF.git</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="5"/>
-        <v> git remote add WPF https://github.com/Utility-531/Utility.WPF.git</v>
+        <f t="shared" si="7"/>
+        <v> git remote add WPF https://github.com/Utility-530/Utility.WPF.git</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>WPF</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>37</v>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>WPF</v>
       </c>
       <c r="L32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="4"/>
-        <v>git subtree add --prefix WPF https://github.com/Utility-531/Utility.WPF.git master</v>
+        <f t="shared" si="6"/>
+        <v>git subtree add --prefix WPF https://github.com/Utility-530/Utility.WPF.git master</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2618,120 +2676,128 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>WPF.git</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="5"/>
-        <v> git remote add WPF https://github.com/Utility-532/Utility.WPF.git</v>
+        <f t="shared" si="7"/>
+        <v> git remote add WPF https://github.com/Utility-530/Utility.WPF.git</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Commands</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>39</v>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v> https://github.com/Utility-530/Utility.</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>Commands</v>
       </c>
       <c r="L33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="4"/>
-        <v>git subtree add --prefix Commands https://github.com/Utility-532/Utility.Commands.git master</v>
+        <f t="shared" si="6"/>
+        <v>git subtree add --prefix Commands https://github.com/Utility-530/Utility.Commands.git master</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="92.25" spans="1:1">
       <c r="A47" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J1" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J2" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J3" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J4" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J5" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J6" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J7" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J8" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J9" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J10" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J11" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J12" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J13" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J14" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J15" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J16" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J17" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J18" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J19" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J20" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J21" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J22" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J23" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J24" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J25" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J26" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J27" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J28" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J29" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J30" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J31" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E1" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E2" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E3" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E4" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E5" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E6" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E7" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E8" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E9" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E10" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E11" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E12" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E13" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E14" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E15" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E16" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E17" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E18" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E19" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E20" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E21" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E22" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E23" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E24" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E25" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E26" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E27" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E28" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E29" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E30" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E31" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E32" r:id="rId1" display=" https://github.com/Utility-531/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J32" r:id="rId1" display=" https://github.com/Utility-531/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="E33" r:id="rId1" display=" https://github.com/Utility-532/Utility." tooltip="https://github.com/Utility-530/Utility."/>
-    <hyperlink ref="J33" r:id="rId1" display=" https://github.com/Utility-532/Utility." tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J2" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J3" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J4" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J5" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J6" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J7" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J8" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J9" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J10" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J11" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J12" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J13" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J14" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J15" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J16" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J17" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J18" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J19" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J20" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J21" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J22" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J23" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J24" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J25" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J26" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J27" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J28" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J29" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J30" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J31" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E2" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E3" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E4" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E5" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E6" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E7" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E8" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E9" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E10" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E11" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E12" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E13" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E14" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E15" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E16" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E17" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E18" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E19" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E20" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E21" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E22" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E23" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E24" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E25" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E26" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E27" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E28" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E29" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E30" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E31" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E32" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E33" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J32" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J33" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="E1" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="B41" r:id="rId1" display=" https://github.com/Utility-530/Utility." tooltip="https://github.com/Utility-530/Utility."/>
+    <hyperlink ref="J1" r:id="rId1" display="=$B$41" tooltip="https://github.com/Utility-530/Utility."/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
